--- a/IMF_analysis.xlsx
+++ b/IMF_analysis.xlsx
@@ -1,73 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c5bbc7c067ffcc0/Desktop/IMF Assessment/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_3A8813EBEDCBE98EA123F292FB228D9B97291373" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Economic Indicators" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Economic Indicators" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Avg GDP Growth (%)</t>
-  </si>
-  <si>
-    <t>Avg Inflation (%)</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,94 +50,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3810000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3810000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,88 +467,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg GDP Growth (%)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Inflation (%)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.86</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5.84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.92</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>6.05</v>
-      </c>
-      <c r="C4">
-        <v>4.96</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.69</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C5" t="n">
         <v>4.99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>